--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hieunguyenphi/Documents/GitHub/ChatBot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F29DD9F-67F3-4644-AC64-6A65D5D81306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A946D0CB-C935-CB4A-9D03-7D1B0C06CD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16280" xr2:uid="{7CDC413B-8111-DF4A-9FDF-B1B0969A95F8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Bot Process" sheetId="1" r:id="rId1"/>
+    <sheet name="Bank Bot" sheetId="2" r:id="rId2"/>
     <sheet name="Terminologies" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Stage</t>
   </si>
@@ -171,16 +171,35 @@
   </si>
   <si>
     <t>Bots either rely on pre-defined recommendations or they could generate recommendations on the fly</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>From left to right</t>
+  </si>
+  <si>
+    <t>From right to left</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,11 +225,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,7 +548,7 @@
   <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -641,10 +661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD6B9540-E390-D449-A7F3-41F26928F73F}">
-  <dimension ref="A3:F10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,7 +673,23 @@
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -667,7 +703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -675,15 +711,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -691,7 +727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -699,23 +735,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -732,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44098A10-0F73-1641-9589-074CCB873A2E}">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
